--- a/input/144L_2018_Exp_TOC.xlsx
+++ b/input/144L_2018_Exp_TOC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasbaetge/GITHUB/eemb144l/Input_Data/week4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasbaetge/GITHUB/acidd_remins/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593D3DC-EADD-554C-8E2B-BEADE826BC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1455EB76-0DEF-4F48-8788-1757E672B5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22320" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{8EED3AEA-F4EA-A846-9F48-9BC514B549B3}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>Depth</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Target_DOC_Amendment</t>
-  </si>
-  <si>
     <t>Inoculum_L</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t>144_H8_S29</t>
+  </si>
+  <si>
+    <t>Temperature_C</t>
+  </si>
+  <si>
+    <t>Target_DOC_Amendment_uM</t>
   </si>
 </sst>
 </file>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261D4165-9365-334F-A488-A389C9348BD9}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,82 +617,82 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>3.5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
@@ -706,42 +706,42 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.5</v>
+      </c>
+      <c r="J3">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.5</v>
-      </c>
-      <c r="J3">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -758,25 +758,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>3.5</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -805,25 +805,25 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>3.5</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -852,25 +852,25 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -897,30 +897,30 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>3.5</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -949,25 +949,25 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>3.5</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -996,25 +996,25 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1043,25 +1043,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>3.5</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1088,30 +1088,30 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>3.5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1140,26 +1140,26 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>3.5</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1185,42 +1185,42 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1.5</v>
+      </c>
+      <c r="J13">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="s">
         <v>18</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.5</v>
-      </c>
-      <c r="J13">
-        <v>3.5</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1249,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>3.5</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -1296,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>3.5</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -1343,13 +1343,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>3.5</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1376,15 +1376,15 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -1393,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>3.5</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -1440,13 +1440,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>3.5</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -1487,13 +1487,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>3.5</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1534,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>3.5</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -1567,15 +1567,15 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1584,13 +1584,13 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>3.5</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -1631,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1649,7 +1649,7 @@
         <v>3.5</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -1664,15 +1664,15 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1681,13 +1681,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -1699,7 +1699,7 @@
         <v>3.5</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -1728,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -1746,7 +1746,7 @@
         <v>3.5</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -1775,13 +1775,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -1793,7 +1793,7 @@
         <v>3.5</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -1822,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -1840,7 +1840,7 @@
         <v>3.5</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -1855,15 +1855,15 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -1872,13 +1872,13 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>10</v>
@@ -1890,7 +1890,7 @@
         <v>3.5</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1907,10 +1907,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -1919,13 +1919,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>10</v>
@@ -1937,7 +1937,7 @@
         <v>3.5</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1954,10 +1954,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -1966,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F29">
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         <v>3.5</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -2013,13 +2013,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30">
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -2031,7 +2031,7 @@
         <v>3.5</v>
       </c>
       <c r="K30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -2046,15 +2046,15 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -2063,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>10</v>
@@ -2081,7 +2081,7 @@
         <v>3.5</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32">
         <v>20</v>
@@ -2110,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -2128,7 +2128,7 @@
         <v>3.5</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -2143,15 +2143,15 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>20</v>
@@ -2160,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -2178,7 +2178,7 @@
         <v>3.5</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>20</v>
@@ -2207,13 +2207,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -2225,7 +2225,7 @@
         <v>3.5</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -2254,13 +2254,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H35">
         <v>10</v>
@@ -2272,7 +2272,7 @@
         <v>3.5</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>20</v>
@@ -2301,13 +2301,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>10</v>
@@ -2319,7 +2319,7 @@
         <v>3.5</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -2334,15 +2334,15 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37">
         <v>20</v>
@@ -2351,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -2369,7 +2369,7 @@
         <v>3.5</v>
       </c>
       <c r="K37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>20</v>
@@ -2398,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>10</v>
@@ -2416,7 +2416,7 @@
         <v>3.5</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -2445,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39">
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H39">
         <v>10</v>
@@ -2463,7 +2463,7 @@
         <v>3.5</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -2492,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40">
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>10</v>
@@ -2510,7 +2510,7 @@
         <v>3.5</v>
       </c>
       <c r="K40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
@@ -2525,15 +2525,15 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -2542,13 +2542,13 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F41">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>10</v>
@@ -2560,7 +2560,7 @@
         <v>3.5</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -2589,13 +2589,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>10</v>
@@ -2607,7 +2607,7 @@
         <v>3.5</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
@@ -2622,15 +2622,15 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -2639,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>10</v>
@@ -2657,7 +2657,7 @@
         <v>3.5</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -2686,13 +2686,13 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>10</v>
@@ -2704,7 +2704,7 @@
         <v>3.5</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -2733,13 +2733,13 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>10</v>
@@ -2751,7 +2751,7 @@
         <v>3.5</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -2780,13 +2780,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>10</v>
@@ -2798,7 +2798,7 @@
         <v>3.5</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -2813,15 +2813,15 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2830,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>10</v>
@@ -2848,7 +2848,7 @@
         <v>3.5</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <v>20</v>
@@ -2877,13 +2877,13 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -2895,7 +2895,7 @@
         <v>3.5</v>
       </c>
       <c r="K48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -2924,13 +2924,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F49">
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>10</v>
@@ -2942,7 +2942,7 @@
         <v>3.5</v>
       </c>
       <c r="K49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -2971,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F50">
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>10</v>
@@ -2989,7 +2989,7 @@
         <v>3.5</v>
       </c>
       <c r="K50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
@@ -3004,15 +3004,15 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>20</v>
@@ -3021,13 +3021,13 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F51">
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>10</v>
@@ -3039,7 +3039,7 @@
         <v>3.5</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3056,10 +3056,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>20</v>
@@ -3068,13 +3068,13 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>10</v>
@@ -3086,7 +3086,7 @@
         <v>3.5</v>
       </c>
       <c r="K52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
@@ -3101,15 +3101,15 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -3118,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>10</v>
@@ -3136,7 +3136,7 @@
         <v>3.5</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -3165,13 +3165,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>10</v>
@@ -3183,7 +3183,7 @@
         <v>3.5</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C55">
         <v>20</v>
@@ -3212,13 +3212,13 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>10</v>
@@ -3230,7 +3230,7 @@
         <v>3.5</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>20</v>
@@ -3259,13 +3259,13 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>10</v>
@@ -3277,7 +3277,7 @@
         <v>3.5</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
@@ -3292,15 +3292,15 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>20</v>
@@ -3309,13 +3309,13 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>10</v>
@@ -3327,7 +3327,7 @@
         <v>3.5</v>
       </c>
       <c r="K57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58">
         <v>20</v>
@@ -3356,13 +3356,13 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>10</v>
@@ -3374,7 +3374,7 @@
         <v>3.5</v>
       </c>
       <c r="K58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C59">
         <v>20</v>
@@ -3403,13 +3403,13 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F59">
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>10</v>
@@ -3421,7 +3421,7 @@
         <v>3.5</v>
       </c>
       <c r="K59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -3438,10 +3438,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C60">
         <v>20</v>
@@ -3450,13 +3450,13 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F60">
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>10</v>
@@ -3468,7 +3468,7 @@
         <v>3.5</v>
       </c>
       <c r="K60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
@@ -3483,15 +3483,15 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -3500,13 +3500,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F61">
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>10</v>
@@ -3518,7 +3518,7 @@
         <v>3.5</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -3535,10 +3535,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>20</v>
@@ -3547,13 +3547,13 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>10</v>
@@ -3565,7 +3565,7 @@
         <v>3.5</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L62" t="b">
         <v>1</v>
@@ -3580,15 +3580,15 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C63">
         <v>20</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>10</v>
@@ -3615,7 +3615,7 @@
         <v>3.5</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64">
         <v>20</v>
@@ -3644,13 +3644,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F64">
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>10</v>
@@ -3662,7 +3662,7 @@
         <v>3.5</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L64" t="b">
         <v>0</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65">
         <v>20</v>
@@ -3691,13 +3691,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>10</v>
@@ -3709,7 +3709,7 @@
         <v>3.5</v>
       </c>
       <c r="K65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66">
         <v>20</v>
@@ -3738,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F66">
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>10</v>
@@ -3756,7 +3756,7 @@
         <v>3.5</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L66" t="b">
         <v>1</v>
@@ -3771,15 +3771,15 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C67">
         <v>20</v>
@@ -3788,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F67">
         <v>5</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>10</v>
@@ -3806,7 +3806,7 @@
         <v>3.5</v>
       </c>
       <c r="K67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -3823,10 +3823,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C68">
         <v>20</v>
@@ -3835,13 +3835,13 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F68">
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>10</v>
@@ -3853,7 +3853,7 @@
         <v>3.5</v>
       </c>
       <c r="K68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C69">
         <v>20</v>
@@ -3882,13 +3882,13 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F69">
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>10</v>
@@ -3900,7 +3900,7 @@
         <v>3.5</v>
       </c>
       <c r="K69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C70">
         <v>20</v>
@@ -3929,13 +3929,13 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F70">
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>10</v>
@@ -3947,7 +3947,7 @@
         <v>3.5</v>
       </c>
       <c r="K70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L70" t="b">
         <v>1</v>
@@ -3962,15 +3962,15 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C71">
         <v>20</v>
@@ -3979,13 +3979,13 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F71">
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>10</v>
@@ -3997,7 +3997,7 @@
         <v>3.5</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
@@ -4014,10 +4014,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72">
         <v>20</v>
@@ -4026,13 +4026,13 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>10</v>
@@ -4044,7 +4044,7 @@
         <v>3.5</v>
       </c>
       <c r="K72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L72" t="b">
         <v>1</v>
@@ -4059,15 +4059,15 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C73">
         <v>20</v>
@@ -4076,13 +4076,13 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>10</v>
@@ -4094,7 +4094,7 @@
         <v>3.5</v>
       </c>
       <c r="K73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74">
         <v>20</v>
@@ -4123,13 +4123,13 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F74">
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>10</v>
@@ -4141,7 +4141,7 @@
         <v>3.5</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75">
         <v>20</v>
@@ -4170,13 +4170,13 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>10</v>
@@ -4188,7 +4188,7 @@
         <v>3.5</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -4205,10 +4205,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <v>20</v>
@@ -4217,13 +4217,13 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F76">
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>10</v>
@@ -4235,7 +4235,7 @@
         <v>3.5</v>
       </c>
       <c r="K76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L76" t="b">
         <v>1</v>
@@ -4250,15 +4250,15 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C77">
         <v>20</v>
@@ -4267,13 +4267,13 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F77">
         <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>10</v>
@@ -4285,7 +4285,7 @@
         <v>3.5</v>
       </c>
       <c r="K77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78">
         <v>20</v>
@@ -4314,13 +4314,13 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F78">
         <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>10</v>
@@ -4332,7 +4332,7 @@
         <v>3.5</v>
       </c>
       <c r="K78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -4349,10 +4349,10 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79">
         <v>20</v>
@@ -4361,13 +4361,13 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F79">
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>10</v>
@@ -4379,7 +4379,7 @@
         <v>3.5</v>
       </c>
       <c r="K79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80">
         <v>20</v>
@@ -4408,13 +4408,13 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F80">
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>10</v>
@@ -4426,7 +4426,7 @@
         <v>3.5</v>
       </c>
       <c r="K80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L80" t="b">
         <v>1</v>
@@ -4441,15 +4441,15 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>20</v>
@@ -4458,13 +4458,13 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F81">
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>10</v>
@@ -4476,7 +4476,7 @@
         <v>3.5</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
@@ -4508,27 +4508,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>9</v>
